--- a/Genshin_Impact_Characters_Final.xlsx
+++ b/Genshin_Impact_Characters_Final.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,7671 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Elemento</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de arma</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rareza</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Actor de voz EN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Actor de voz JP</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Main DPS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-DPS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Exploración</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Base HP</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Base ATK</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Base DEF</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Max HP</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Max ATK</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Max DEF</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Albedo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khoi Dao</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nojima Kenji</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>13226</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Alhaitham</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nazeeh Tarsha</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Umehara Yuuichirou</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>13348</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aloy</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Giselle Fernandez</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Takagaki Ayahi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>10899</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Amber</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kelly Baskin</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Iwami Manaka</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>9461</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Arlecchino</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Erin Yvette</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mori Nanako</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2597</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>12858</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>13715</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baizhu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sean Durrie &amp; Xanthe Huynh</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yusa Koji &amp; Shoji Yui</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>13348</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Barbara</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Laura Stahl</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kito Akari</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>9787</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Beidou</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Allegra Clark</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Koshimizu Ami</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>13050</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bennett</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cristina Vee Valenzuela</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ousaka Ryouta</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>12397</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Candace</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Shara Kirby</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yuzuki Ryoka</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Maya Aoki Tutttle</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Azumi Waki</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2319</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>10766</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chevreuse</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Erica Lindbeck</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Shimoji Shino</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>11962</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiori</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Brittany Lauda</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Taketatsu Ayana</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2310</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>11438</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chongyun</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Beau Bridgland</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Saito Soma</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10984</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Clorinde</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Crystal Lee</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Yui Ishikawa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>12956</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Collei</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Christina Costello</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Maekawa Ryōko</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>8674</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cyno</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Alejandro Saab</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Irino Miyu</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2522</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12419</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dehya</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Amber May</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Fukuhara Ayaka</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>15675</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Diluc</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sean Chiplock</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ono Kenshou</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2621</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>12981</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Diona</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dina Sherman</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Izawa Shiori</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dori</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Anjali Kunapaneni</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Tomoko Kaneda</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>12397</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eula</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Suzie Yeung</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Sato Rina</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2671</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>13226</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Faruzan</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Chandni Parekh</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Horie  Yui</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fischl</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Brittany Cox</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Uchida Maaya &amp; Yasunori Masutani</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>9189</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Freminet</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Paul Castro Jr.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Shunichi Toki</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>12071</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Furina</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Amber Lee Connors</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Inori Minase</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>3091</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>15307</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Caleb Yen</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Komatsu Shohei</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>11419</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ganyu</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Jennifer Losi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Ueda Reina</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>9797</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gorou</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Cory Yee</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hatanaka Tasuku</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Heizou</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kieran Regan</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Iguchi Yuichi</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>10657</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hu Tao</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Brianna Knickerbocker</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Takahashi Rie</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>3141</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>15552</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2597</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>12858</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Jean</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Stephanie Southerland</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Saito Chiwa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>14695</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kaeya</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Josey Montana McCoy</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Toriumi Kohsuke</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2506</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>11636</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kaveh</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ben Balmaceda</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Yuma Uchida</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>11962</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kazuha</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mark Whitten</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Shimazaki Nobunaga</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2695</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13348</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>807</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Keqing</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kayli Mills</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Kitamura Eri</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kirara</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Julia Gu</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Suzushiro Sayumi</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2623</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>12180</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Klee</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Poonam Basu</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Kuno Misaki</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2077</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>10287</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kokomi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Risa Mei</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mimori Suzuko</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>13471</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Layla</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Ashely Biski</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Tomita Miyu</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2389</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>11092</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Mara Junot</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Tanaka Rie</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lynette</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Anairis Quiñones</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sasahara Yu</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>12397</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lyney</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Daman Mills</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Shimono Hiro</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>11021</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mika</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Robb Moreira</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yūko Sanpei</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2694</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>12506</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mona</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Felecia Angelle</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Kohara Konomi</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>10409</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Nahida</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Kimberley Anne Campbell</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Tamura Yukari</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>10360</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Navia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Brenna Larsen</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Toyosaki Aki</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>12650</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Neuvillette</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Ray Chase</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Hiroshi Kamiya</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>14695</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nilou</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Dani Chambers</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Kanemoto Hisako</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3066</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ningguang</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Erin Ebers</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Ohara Sayaka</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>9787</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Noelle</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Laura Faye Smith</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Takao Kanon</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2600</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>12071</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Qiqi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Christie Cate</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Tamura Yukari</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>12368</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>12907</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Razor</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Todd Haberkorn</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Uchiyama Kouki</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2577</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>11962</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Rosaria</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Elizabeth Maxwell</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Kakuma Ai</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2647</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Jeannie Tirado</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Seto Asami</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>9570</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Sayu</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Lilypichu (Lily Ki)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Suzaki Aya</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>11854</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Sethos</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Zeno Robinson</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Chiba Shoya</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>9787</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Shenhe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Chelsea Kwoka</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Kawasumi Ayako</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2624</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>12993</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Shinobu</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kira Buckland</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Mizuhashi Kaori</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2647</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sucrose</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Valeria Rodriguez</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Fujita Akane</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>9244</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tartaglia</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Griffin Burns</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Kimura Ryohei</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>13103</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Thoma</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Christian Banas</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Morita Masakazu</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2225</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10331</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tighnari</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Zachary Gordon</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Kobayashi Sanae</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2191</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>10850</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Traveler (Anemo)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Zach Aguilar / Sarah Miller-Crews</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Horie Shun (M), Yuki Aoi (F)</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Traveler (Dendro)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Zach Aguilar / Sarah Miller-Crews</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Horie Shun (M), Yuki Aoi (F)</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Traveler (Geo)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Zach Aguilar / Sarah Miller-Crews</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Horie Shun (M), Yuki Aoi (F)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Traveler (Hydro)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Zach Aguilar / Sarah Miller-Crews</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Horie Shun (M), Yuki Aoi (F)</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Venti</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Erika Harlacher</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Murase Ayumu</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2127</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Wanderer</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Patrick Pedraza</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Kakihara Tetsuya</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>10164</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Wriothesley</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Cryo</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Joe Zieja</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Daisuke Ono</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>13593</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Xiangling</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Jackie Lastra</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Ozawa Ari</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Xianyun</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Stephanie Panisello</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Nakatomi Mana</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10409</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Xiao</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Anemo</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Laila Berzins</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Matsuoka Yoshitsugu</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>12736</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Xingqiu</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sword</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cristina Vee Valenzuela</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Minagawa Junko</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>10222</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Xinyan</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Claymore</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Laura Stahl</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Takahashi Chiaki</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2413</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>11201</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Yae Miko</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Electro</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ratana</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ayane Sakura</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2095</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10372</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Yanfei</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Catalyst</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Lizzie Freeman</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Hanamori Yumiri</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>9352</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Yaoyao</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Dendro</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Kelsey Jaffer</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Kadowaki Mai</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2647</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>12289</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Yelan</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Hydro</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Laura Post</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Endo Aya</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>14450</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Yoimiya</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Pyro</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Bow</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Jenny Yokobori</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Ueda Kana</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10164</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Yun Jin</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>★★★★</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Judy Alice Lee &amp; Yang Yang</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Koiwai Kotori &amp; Yang Yang</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2296</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10657</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Zhongli</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Geo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Polearm</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>★★★★★</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Keith Silverstein</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Maeno Tomoaki</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2967</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>14695</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>